--- a/Excel2MaiMLProtocol/INPUT/test/example.xlsx
+++ b/Excel2MaiMLProtocol/INPUT/test/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2MaiML2/INPUT/test2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2DocandProtocolofMaiML/INPUT/test2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7478F509-6ACF-514E-83D0-7A72E4225116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E780E69E-F62A-1F49-94EF-934484F47363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="135">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -2444,7 +2444,7 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -2808,10 +2808,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="14"/>
@@ -2823,12 +2823,12 @@
     <col min="8" max="9" width="20.1640625" style="50" customWidth="1"/>
     <col min="10" max="10" width="32.1640625" style="50" customWidth="1"/>
     <col min="11" max="11" width="38.33203125" style="51" customWidth="1"/>
-    <col min="12" max="13" width="25.1640625" style="50"/>
-    <col min="14" max="14" width="5.83203125" style="49" customWidth="1"/>
-    <col min="15" max="16384" width="25.1640625" style="49"/>
+    <col min="12" max="12" width="25.1640625" style="50"/>
+    <col min="13" max="13" width="5.83203125" style="49" customWidth="1"/>
+    <col min="14" max="16384" width="25.1640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" customHeight="1">
+    <row r="1" spans="1:12" ht="24" customHeight="1">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -2863,13 +2863,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="46" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1">
+    <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="56" t="s">
         <v>67</v>
       </c>
@@ -2890,9 +2887,8 @@
       <c r="J2" s="57"/>
       <c r="K2" s="59"/>
       <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="3" spans="1:12" ht="24" customHeight="1">
       <c r="A3" s="56" t="s">
         <v>67</v>
       </c>
@@ -2917,9 +2913,8 @@
         <v>81</v>
       </c>
       <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-    </row>
-    <row r="4" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1">
       <c r="A4" s="56" t="s">
         <v>67</v>
       </c>
@@ -2944,9 +2939,8 @@
         <v>80</v>
       </c>
       <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-    </row>
-    <row r="5" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1">
       <c r="A5" s="56" t="s">
         <v>68</v>
       </c>
@@ -2967,9 +2961,8 @@
       <c r="J5" s="57"/>
       <c r="K5" s="59"/>
       <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-    </row>
-    <row r="6" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1">
       <c r="A6" s="56" t="s">
         <v>68</v>
       </c>
@@ -2992,9 +2985,8 @@
       </c>
       <c r="K6" s="59"/>
       <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-    </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1">
       <c r="A7" s="56" t="s">
         <v>68</v>
       </c>
@@ -3015,9 +3007,8 @@
       <c r="J7" s="57"/>
       <c r="K7" s="59"/>
       <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-    </row>
-    <row r="8" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="8" spans="1:12" ht="24" customHeight="1">
       <c r="A8" s="56" t="s">
         <v>68</v>
       </c>
@@ -3040,9 +3031,8 @@
       </c>
       <c r="K8" s="59"/>
       <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-    </row>
-    <row r="9" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="9" spans="1:12" ht="24" customHeight="1">
       <c r="A9" s="56" t="s">
         <v>68</v>
       </c>
@@ -3065,9 +3055,8 @@
       </c>
       <c r="K9" s="59"/>
       <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-    </row>
-    <row r="10" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="10" spans="1:12" ht="24" customHeight="1">
       <c r="A10" s="56" t="s">
         <v>68</v>
       </c>
@@ -3092,9 +3081,8 @@
       </c>
       <c r="K10" s="59"/>
       <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-    </row>
-    <row r="11" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="11" spans="1:12" ht="24" customHeight="1">
       <c r="A11" s="56" t="s">
         <v>68</v>
       </c>
@@ -3115,9 +3103,8 @@
       <c r="J11" s="57"/>
       <c r="K11" s="59"/>
       <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-    </row>
-    <row r="12" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="12" spans="1:12" ht="24" customHeight="1">
       <c r="A12" s="56" t="s">
         <v>68</v>
       </c>
@@ -3140,9 +3127,8 @@
       </c>
       <c r="K12" s="59"/>
       <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-    </row>
-    <row r="13" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="13" spans="1:12" ht="24" customHeight="1">
       <c r="A13" s="56" t="s">
         <v>68</v>
       </c>
@@ -3163,9 +3149,8 @@
       <c r="J13" s="57"/>
       <c r="K13" s="59"/>
       <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-    </row>
-    <row r="14" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="14" spans="1:12" ht="24" customHeight="1">
       <c r="A14" s="56" t="s">
         <v>68</v>
       </c>
@@ -3188,9 +3173,8 @@
       </c>
       <c r="K14" s="59"/>
       <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-    </row>
-    <row r="15" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="15" spans="1:12" ht="24" customHeight="1">
       <c r="A15" s="56" t="s">
         <v>68</v>
       </c>
@@ -3215,9 +3199,8 @@
       </c>
       <c r="K15" s="59"/>
       <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-    </row>
-    <row r="16" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="16" spans="1:12" ht="24" customHeight="1">
       <c r="A16" s="56" t="s">
         <v>68</v>
       </c>
@@ -3238,9 +3221,8 @@
       <c r="J16" s="57"/>
       <c r="K16" s="59"/>
       <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-    </row>
-    <row r="17" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="17" spans="1:12" ht="24" customHeight="1">
       <c r="A17" s="56" t="s">
         <v>68</v>
       </c>
@@ -3265,9 +3247,8 @@
       </c>
       <c r="K17" s="59"/>
       <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-    </row>
-    <row r="18" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="18" spans="1:12" ht="24" customHeight="1">
       <c r="A18" s="56" t="s">
         <v>68</v>
       </c>
@@ -3292,9 +3273,8 @@
       </c>
       <c r="K18" s="59"/>
       <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-    </row>
-    <row r="19" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="19" spans="1:12" ht="24" customHeight="1">
       <c r="A19" s="56" t="s">
         <v>68</v>
       </c>
@@ -3315,9 +3295,8 @@
       <c r="J19" s="57"/>
       <c r="K19" s="59"/>
       <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-    </row>
-    <row r="20" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="20" spans="1:12" ht="24" customHeight="1">
       <c r="A20" s="56" t="s">
         <v>68</v>
       </c>
@@ -3342,9 +3321,8 @@
       </c>
       <c r="K20" s="59"/>
       <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-    </row>
-    <row r="21" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="21" spans="1:12" ht="24" customHeight="1">
       <c r="A21" s="56" t="s">
         <v>68</v>
       </c>
@@ -3365,9 +3343,8 @@
       <c r="J21" s="57"/>
       <c r="K21" s="59"/>
       <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-    </row>
-    <row r="22" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="22" spans="1:12" ht="24" customHeight="1">
       <c r="A22" s="56" t="s">
         <v>69</v>
       </c>
@@ -3387,12 +3364,11 @@
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
       <c r="K22" s="59"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57" t="s">
+      <c r="L22" s="57" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="24" customHeight="1">
+    <row r="23" spans="1:12" ht="24" customHeight="1">
       <c r="A23" s="56" t="s">
         <v>69</v>
       </c>
@@ -3412,12 +3388,11 @@
       <c r="I23" s="57"/>
       <c r="J23" s="57"/>
       <c r="K23" s="59"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57" t="s">
+      <c r="L23" s="57" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="24" customHeight="1">
+    <row r="24" spans="1:12" ht="24" customHeight="1">
       <c r="A24" s="56" t="s">
         <v>69</v>
       </c>
@@ -3439,12 +3414,11 @@
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
       <c r="K24" s="59"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57" t="s">
+      <c r="L24" s="57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="24" customHeight="1">
+    <row r="25" spans="1:12" ht="24" customHeight="1">
       <c r="A25" s="56" t="s">
         <v>69</v>
       </c>
@@ -3466,12 +3440,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="K25" s="59"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57" t="s">
+      <c r="L25" s="57" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="24" customHeight="1">
+    <row r="26" spans="1:12" ht="24" customHeight="1">
       <c r="A26" s="56" t="s">
         <v>69</v>
       </c>
@@ -3493,12 +3466,11 @@
       <c r="I26" s="57"/>
       <c r="J26" s="57"/>
       <c r="K26" s="59"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57" t="s">
+      <c r="L26" s="57" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="24" customHeight="1">
+    <row r="27" spans="1:12" ht="24" customHeight="1">
       <c r="A27" s="56" t="s">
         <v>69</v>
       </c>
@@ -3522,12 +3494,11 @@
       <c r="I27" s="57"/>
       <c r="J27" s="57"/>
       <c r="K27" s="59"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57" t="s">
+      <c r="L27" s="57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="24" customHeight="1">
+    <row r="28" spans="1:12" ht="24" customHeight="1">
       <c r="A28" s="56" t="s">
         <v>69</v>
       </c>
@@ -3549,12 +3520,11 @@
       <c r="I28" s="57"/>
       <c r="J28" s="57"/>
       <c r="K28" s="59"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57" t="s">
+      <c r="L28" s="57" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="24" customHeight="1">
+    <row r="29" spans="1:12" ht="24" customHeight="1">
       <c r="A29" s="56" t="s">
         <v>69</v>
       </c>
@@ -3575,9 +3545,8 @@
       <c r="J29" s="57"/>
       <c r="K29" s="59"/>
       <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-    </row>
-    <row r="30" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="30" spans="1:12" ht="24" customHeight="1">
       <c r="A30" s="56" t="s">
         <v>69</v>
       </c>
@@ -3602,9 +3571,8 @@
       </c>
       <c r="K30" s="59"/>
       <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-    </row>
-    <row r="31" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="31" spans="1:12" ht="24" customHeight="1">
       <c r="A31" s="56" t="s">
         <v>69</v>
       </c>
@@ -3629,9 +3597,8 @@
       </c>
       <c r="K31" s="59"/>
       <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-    </row>
-    <row r="32" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="32" spans="1:12" ht="24" customHeight="1">
       <c r="A32" s="56" t="s">
         <v>69</v>
       </c>
@@ -3656,9 +3623,8 @@
       </c>
       <c r="K32" s="59"/>
       <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-    </row>
-    <row r="33" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="33" spans="1:12" ht="24" customHeight="1">
       <c r="A33" s="56" t="s">
         <v>69</v>
       </c>
@@ -3681,9 +3647,8 @@
       </c>
       <c r="K33" s="59"/>
       <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-    </row>
-    <row r="34" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="34" spans="1:12" ht="24" customHeight="1">
       <c r="A34" s="56" t="s">
         <v>69</v>
       </c>
@@ -3706,9 +3671,8 @@
       </c>
       <c r="K34" s="59"/>
       <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-    </row>
-    <row r="35" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="35" spans="1:12" ht="24" customHeight="1">
       <c r="A35" s="56" t="s">
         <v>69</v>
       </c>
@@ -3731,9 +3695,8 @@
       </c>
       <c r="K35" s="59"/>
       <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-    </row>
-    <row r="36" spans="1:13" ht="24" customHeight="1">
+    </row>
+    <row r="36" spans="1:12" ht="24" customHeight="1">
       <c r="A36" s="56" t="s">
         <v>69</v>
       </c>
@@ -3756,7 +3719,6 @@
       </c>
       <c r="K36" s="59"/>
       <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/Excel2MaiMLProtocol/INPUT/test/example.xlsx
+++ b/Excel2MaiMLProtocol/INPUT/test/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2DocandProtocolofMaiML/INPUT/test2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Expansion/現在進行形/90_PublicGithub/MaiMLFileHandlingPtograms/Excel2DocandProtocolofMaiML/INPUT/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E780E69E-F62A-1F49-94EF-934484F47363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F27A56D-3297-0B4B-AC01-B86FE1174627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="136">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -642,6 +642,10 @@
   </si>
   <si>
     <t>PARENTID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UUID</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2711,19 +2715,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="7" width="26.6640625" style="2"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="1" max="8" width="26.6640625" style="2"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" customHeight="1">
+    <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2731,71 +2735,77 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" customHeight="1">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" customHeight="1">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2810,7 +2820,7 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
